--- a/src/test/resources/Excel/Credentials.xlsx
+++ b/src/test/resources/Excel/Credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>dec4th.proctor.5</t>
   </si>
   <si>
-    <t>dec4th.examtaker.5</t>
-  </si>
-  <si>
     <t>Examtaker</t>
   </si>
   <si>
@@ -54,12 +51,6 @@
     <t>Token</t>
   </si>
   <si>
-    <t>Test Examinations40</t>
-  </si>
-  <si>
-    <t>Schedule 13 dec</t>
-  </si>
-  <si>
     <t>controller.ne.5</t>
   </si>
   <si>
@@ -79,13 +70,22 @@
   </si>
   <si>
     <t>4CAA81</t>
+  </si>
+  <si>
+    <t>dec27.examtaker.5</t>
+  </si>
+  <si>
+    <t>Dec 28 Exam</t>
+  </si>
+  <si>
+    <t>New Schedule 28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1E88E5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,11 +141,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,24 +472,24 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -494,24 +500,24 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -537,71 +543,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Excel/Credentials.xlsx
+++ b/src/test/resources/Excel/Credentials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Token</t>
   </si>
   <si>
-    <t>controller.ne.5</t>
-  </si>
-  <si>
     <t>prod22.controller.5</t>
   </si>
   <si>
@@ -72,33 +69,46 @@
     <t>4CAA81</t>
   </si>
   <si>
-    <t>dec27.examtaker.5</t>
-  </si>
-  <si>
-    <t>Dec 28 Exam</t>
-  </si>
-  <si>
-    <t>New Schedule 28</t>
+    <t>Extended Type</t>
+  </si>
+  <si>
+    <t>When user unpack the Standards Mastery by Domain 
+whose domain having 0 % showing error in pie chart 
+through Student dashboard</t>
+  </si>
+  <si>
+    <t>Blank Answer</t>
+  </si>
+  <si>
+    <t>String Connection</t>
+  </si>
+  <si>
+    <t>pc.controller1.5</t>
+  </si>
+  <si>
+    <t>jan8.examtaker.5</t>
+  </si>
+  <si>
+    <t>jan 8th</t>
+  </si>
+  <si>
+    <t>JAn 8</t>
+  </si>
+  <si>
+    <t>6DA9D3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -113,8 +123,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF1E88E5"/>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3D4051"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -139,13 +161,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,9 +487,11 @@
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,10 +510,16 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -492,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -503,9 +539,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
+    <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -513,10 +549,19 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -543,71 +588,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Excel/Credentials.xlsx
+++ b/src/test/resources/Excel/Credentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>username</t>
   </si>
@@ -49,24 +49,6 @@
   </si>
   <si>
     <t>Token</t>
-  </si>
-  <si>
-    <t>prod22.controller.5</t>
-  </si>
-  <si>
-    <t>prod.proctor.5</t>
-  </si>
-  <si>
-    <t>december27.examtaker.5</t>
-  </si>
-  <si>
-    <t>New prod Exam2</t>
-  </si>
-  <si>
-    <t>schedule 1</t>
-  </si>
-  <si>
-    <t>4CAA81</t>
   </si>
   <si>
     <t>Extended Type</t>
@@ -86,23 +68,56 @@
     <t>pc.controller1.5</t>
   </si>
   <si>
-    <t>jan8.examtaker.5</t>
-  </si>
-  <si>
-    <t>jan 8th</t>
-  </si>
-  <si>
-    <t>JAn 8</t>
-  </si>
-  <si>
-    <t>6DA9D3</t>
+    <t>a2d128</t>
+  </si>
+  <si>
+    <t>09 Jan</t>
+  </si>
+  <si>
+    <t>Schedule 9 jan</t>
+  </si>
+  <si>
+    <t>jan9.examtaker.5</t>
+  </si>
+  <si>
+    <t>94fff4</t>
+  </si>
+  <si>
+    <t>Jan Examinations</t>
+  </si>
+  <si>
+    <t>Schedule jan9th</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Tenant ID</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>controller02</t>
+  </si>
+  <si>
+    <t>january11</t>
+  </si>
+  <si>
+    <t>proctor05</t>
+  </si>
+  <si>
+    <t>examtaker05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +155,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -174,6 +196,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,15 +536,15 @@
         <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -541,7 +566,7 @@
     </row>
     <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -549,20 +574,20 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -573,86 +598,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
